--- a/src/test/resources/Search data.xlsx
+++ b/src/test/resources/Search data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\IdeaProjects\Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31722D-081E-4AE0-BB2C-0B906D9FA687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6A9A5-EA9A-442A-99A4-88A51469B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="108" windowWidth="17280" windowHeight="8964" xr2:uid="{02EFD5CF-44FC-4B37-A3C4-3565EECB7378}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Verify when the user search for unknown product</t>
   </si>
   <si>
-    <t>tjrqt</t>
-  </si>
-  <si>
     <t>Verify that the user checks with the deals and discount</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Today's Deals</t>
+  </si>
+  <si>
+    <t>aztp</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -458,28 +458,28 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>

--- a/src/test/resources/Search data.xlsx
+++ b/src/test/resources/Search data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\IdeaProjects\Cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6A9A5-EA9A-442A-99A4-88A51469B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5D8288-90D0-407F-901E-503DBBF3CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="108" windowWidth="17280" windowHeight="8964" xr2:uid="{02EFD5CF-44FC-4B37-A3C4-3565EECB7378}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>Verify that the user is able to search by the category</t>
   </si>
   <si>
-    <t>Verify that the user able to search with the new releases</t>
-  </si>
-  <si>
-    <t>New Releases</t>
-  </si>
-  <si>
     <t>Today's Deals</t>
   </si>
   <si>
     <t>aztp</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Verify that the user able to search for customer service</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -458,15 +458,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
